--- a/biology/Médecine/Fissure_orbitaire_inférieure/Fissure_orbitaire_inférieure.xlsx
+++ b/biology/Médecine/Fissure_orbitaire_inférieure/Fissure_orbitaire_inférieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fissure_orbitaire_inf%C3%A9rieure</t>
+          <t>Fissure_orbitaire_inférieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fissure orbitaire inférieure (ou fente sphéno-maxillaire) est une fissure osseuse de la cavité orbitaire permettant la communication entre la fosse infratemporale et l'orbite.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fissure_orbitaire_inf%C3%A9rieure</t>
+          <t>Fissure_orbitaire_inférieure</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son bord supérieur est formé par une crête de la grande aile de l'os sphénoïde.
 Son bord inférieur est formé par le processus orbitaire de l'os palatin et le bord latéral de la face orbitaire de l'os maxillaire.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fissure_orbitaire_inf%C3%A9rieure</t>
+          <t>Fissure_orbitaire_inférieure</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Elle permet le passage :
 du nerf zygomatique, branche du nerf maxillaire ;
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fissure_orbitaire_inf%C3%A9rieure</t>
+          <t>Fissure_orbitaire_inférieure</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Images</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Fosse infratemporale gauche.
